--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_B, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_ICT_M, 4_CSBS_N, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_IoTA_J, 6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_L</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_E, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_IT_K, 6_CSBS_N</t>
+          <t>4_CSE_D, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_D, 6_CSBT_I, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_AIDS_H, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_CSE_D, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
+          <t>4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_CSBT_I</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_AIDS_H, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_B, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L, 6_ICT_M</t>
+          <t>4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_CSBT_I</t>
+          <t>4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_AIDS_H, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_B, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5888,11 +5888,7 @@
           <t>MINOR_6</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>MINOR_6</t>
-        </is>
-      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
@@ -5915,11 +5911,7 @@
           <t>MINOR_4</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>MINOR_4</t>
-        </is>
-      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
@@ -5934,7 +5926,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5957,7 +5949,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5980,7 +5972,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6003,7 +5995,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_AIDS_H, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6026,7 +6018,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6049,7 +6041,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
+          <t>4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6072,7 +6064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6095,7 +6087,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6118,7 +6110,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_ICT_M</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6141,7 +6133,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IT_K, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IT_L</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
+          <t>4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_D, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_ICT_M</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IT_K, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_ICT_M</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_IoTA_J, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_AIDS_F, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_G, 4_IoTA_J, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">

--- a/data/data_with_lunch.xlsx
+++ b/data/data_with_lunch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6_IT_K, 6_IT_L,6_ICT_M</t>
+          <t>Sec A, Sec B, Sec C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INT302R01, INT309</t>
+          <t>XXAB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan, Dr. R. S. Raghav,  Dr. C. Thaventhiran ,Dr. K. Hariharan</t>
+          <t>Prof AM, Prof V, Prof P, Prof Y</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -503,25 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6_IT_K, 6_IT_L,6_ICT_M</t>
+          <t>Sec D, Sec E, Sec F</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INT302R01, INT309</t>
+          <t>XXZ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan, Dr. R. S. Raghav,  Dr. C. Thaventhiran ,Dr. K. Hariharan</t>
+          <t>Prof AD</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -530,21 +526,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec G, Sec H, Sec I</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CSE313</t>
+          <t>XXAO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dr. S. Priya</t>
+          <t>Prof R</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -555,21 +551,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec J, Sec K, Sec L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXBO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer</t>
+          <t>Prof AM, Prof Z, Prof H, Prof B</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -580,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec M, Sec N, Sec O</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXAU</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi</t>
+          <t>Prof J, Prof Q, Prof AD</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -605,23 +601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec P, Sec Q, Sec R</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. N. Moratanch</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof V, Prof M, Prof F, Prof J</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -630,23 +626,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXR, XXBJ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. M. Rajakumaran</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof S, Prof AM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -655,21 +651,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXAV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh</t>
+          <t>Prof AB, Prof T</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -680,23 +676,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXAN, XXB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh, Shri B. Ramneshkar</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AG, Prof N</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -705,23 +701,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXBJ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AL, Prof D, Prof Z</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -730,17 +726,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CSE313</t>
+          <t>XXE, XXAZ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dr. S. Ramya</t>
+          <t>Prof L, Prof AD</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -755,17 +751,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXH, XXAE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dr. R. Nithya</t>
+          <t>Prof AN, Prof F, Prof AH, Prof Y</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -780,21 +776,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXAK, XXW</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani</t>
+          <t>Prof AK, Prof F, Prof B, Prof V</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -805,23 +801,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXA, XXK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AE, Prof S</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -830,23 +826,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXAY, XXE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. L. Sriram,Dr. R. Nithya, Dr. N. Moratanch</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof W, Prof E, Prof C, Prof AK</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -855,17 +851,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXAV</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya</t>
+          <t>Prof P, Prof T, Prof R, Prof Q</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -880,23 +876,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. S. Pradeepa</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof X, Prof M, Prof Q</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -905,23 +901,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXN, XXAK</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof X, Prof F</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -930,21 +926,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4_IT_K, 4_IT_L,4_ICT_M</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAT304R01, CSE202,CSE307</t>
+          <t>XXBH, XXBJ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. S. Kalidasan, Dr. R. Seethalakshmi, Shri N. Senthil Anand,Smt. T. M. Latha </t>
+          <t>Prof AG, Prof C, Prof AE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -955,21 +951,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXBN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shri R. Vignesh</t>
+          <t>Prof U, Prof V, Prof I</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -980,17 +976,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXV</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi</t>
+          <t>Prof AG</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1005,23 +1001,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CSE207R01</t>
+          <t>XXH, XXW</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dr. M. Meenalochani</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Prof I, Prof A, Prof H</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1030,23 +1026,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CSE308</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dr. R. Alageswaran</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>Prof Z, Prof AA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1055,23 +1051,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof I, Prof J</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1080,23 +1076,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXBK, XXV</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AM, Prof T, Prof K</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1105,17 +1101,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAQ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dr. D. Sarala</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1130,21 +1126,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi</t>
+          <t>Prof K, Prof AL</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1155,21 +1151,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CSE207R01</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dr. T. Pasupathi</t>
+          <t>Prof AB, Prof Q, Prof E, Prof C</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1180,21 +1176,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CSE308</t>
+          <t>XXD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dr. K. Geetha</t>
+          <t>Prof AF, Prof AG, Prof AD, Prof Z</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1205,17 +1201,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
+          <t>Prof AL, Prof E, Prof AN, Prof AG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1230,23 +1226,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXAV</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AH, Prof W, Prof P</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1255,25 +1251,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CSE334R01, CSE413R01</t>
+          <t>XXBC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha,  Dr. A. Emily Jenifer</t>
+          <t>Prof AE, Prof B, Prof AC, Prof AG</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1282,22 +1276,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CSE334R01, CSE413R01</t>
+          <t>XXW</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha,  Dr. A. Emily Jenifer</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
+          <t>Prof J, Prof C</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
         <v>2</v>
       </c>
@@ -1309,21 +1301,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXAQ, XXBI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dr. K. Ramkumar</t>
+          <t>Prof E, Prof W, Prof K</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1334,21 +1326,21 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CSE432R01</t>
+          <t>XXAD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dr. K. R. Manjula</t>
+          <t>Prof H, Prof O, Prof Z, Prof D</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1359,20 +1351,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXAD, XXS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Dr. R. Lavanya</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>Prof R, Prof K</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
     </row>
@@ -1382,21 +1376,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa</t>
+          <t>Prof S</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1407,23 +1401,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXBH</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa, Dr. S. Vishnika Veni, Dr. M. Jayasheela Rakkini</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof N, Prof AO, Prof D, Prof AK</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1432,23 +1426,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXL, XXBP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer, Dr. M. Rajakumaran, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof M, Prof X</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1457,17 +1451,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer, Dr. P. Sathyaprakash, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
+          <t>Prof X</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1482,23 +1476,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXBP</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shri K. Arunkumar</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AD, Prof A</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1507,23 +1501,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>Prof AK</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
       <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1532,21 +1526,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CSE432R01</t>
+          <t>XXBI, XXAP</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Dr. K. Praveen Kumar</t>
+          <t>Prof P, Prof AN</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1557,20 +1551,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXR</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Prof AL, Prof Y</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
     </row>
@@ -1580,17 +1576,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXBG, XXN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Dr. S. Vishnika Veni</t>
+          <t>Prof X</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1605,23 +1601,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dr. S. Vishnika Veni, Dr. S. Pradeepa, Dr. M. Jayasheela Rakkini</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof T</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1630,23 +1626,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXBC, XXAL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. M. Jayasheela Rakkini, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Q, Prof AN</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1655,17 +1651,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. S. Vidivelli, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
+          <t>Prof V, Prof C</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1680,23 +1676,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAE, XXT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Shri M. B. Sundhararaj</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AO</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1705,23 +1701,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXBJ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>Prof B, Prof AH</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
       <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1730,17 +1726,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CSE432R01</t>
+          <t>XXAS, XXAD</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dr. K. Praveen Kumar</t>
+          <t>Prof P</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1755,20 +1751,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXAN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dr. P. Suguna</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>Prof W</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
     </row>
@@ -1778,21 +1776,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXAR, XXBP</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dr. M. Jayasheela Rakkini</t>
+          <t>Prof B, Prof K, Prof G, Prof U</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1803,23 +1801,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Dr. M. Jayasheela Rakkini, Dr. S. Pradeepa, Dr. S. Vishnika Veni</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AP, Prof R, Prof U</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1828,23 +1826,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash, Dr. M. Rajakumaran, Dr. C. Thaventhiran, Dr. K. Praveen Kumar</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof X, Prof AN, Prof M</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -1853,23 +1851,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXAW</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash, Dr. S. Vidivelli, Dr. C. Thaventhiran,  Smt. A. Srilakshmi</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AJ, Prof AC, Prof AE, Prof M</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -1878,23 +1876,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXR</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AC, Prof U</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -1903,21 +1901,21 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAJ, XXE</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dr. V. Swaminathan</t>
+          <t>Prof C</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -1928,17 +1926,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXAM, XXBB</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Dr. P. L. K. Priyadarsini</t>
+          <t>Prof H, Prof E, Prof C</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1953,21 +1951,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXAV, XXD</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Dr. P. Manivannan</t>
+          <t>Prof AE, Prof L</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -1978,21 +1976,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXAX</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh</t>
+          <t>Prof W, Prof AH</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2003,21 +2001,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXAS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Dr. S. Kamakshi</t>
+          <t>Prof Y, Prof F</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2028,17 +2026,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXR, XXAV</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dr. S. Kamakshi, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
+          <t>Prof P, Prof J, Prof X</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2053,23 +2051,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXAS, XXAN</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh,Dr. K. Hariharan,Dr. P. L. K. Priyadarsini, Dr. V. Meena</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AP, Prof B</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2078,23 +2076,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh,Dr. K. Hariharan,Dr. P. L. K. Priyadarsini, Dr. S. Priya</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof F, Prof R</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2103,23 +2101,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXBD, XXBL</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Dr. R. Manivannan</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>4</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>Prof O</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
       <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2128,21 +2126,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXP</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini</t>
+          <t>Prof AA, Prof AF, Prof AJ</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -2153,21 +2151,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXJ, XXB</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan</t>
+          <t>Prof M, Prof I, Prof N, Prof D</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -2178,17 +2176,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXBF</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Dr. T. Pasupathi</t>
+          <t>Prof AE, Prof Q, Prof Y, Prof AG</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2203,17 +2201,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXAC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dr. K. Rajkumar</t>
+          <t>Prof O, Prof AL, Prof AG, Prof R</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2228,23 +2226,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXA, XXAN</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dr. K. Rajkumar,Dr. M. Ifjaz Ahmed,Dr. V. Anand</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Y</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>4</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2253,23 +2251,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini,Dr. P. Immaculate Rexi Jenifer,Dr. T. Pasupathi,Dr. M. V. Rajilal</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AB, Prof AO, Prof H</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2278,23 +2276,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXL, XXBE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini,Dr. P. Immaculate Rexi Jenifer,Dr. T. Pasupathi,Dr. R. Sivaraman</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AB</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2303,21 +2301,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. G. Sathiamoorthy </t>
+          <t>Prof AG, Prof AK</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -2328,23 +2326,23 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXR, XXN</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Shri V. Pugazhenthi</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>4</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>Prof AA, Prof O, Prof W, Prof T</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
       <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2353,17 +2351,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXAP, XXAF</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dr. V. Ganesh Karthikeyan</t>
+          <t>Prof W, Prof K</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2378,21 +2376,21 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai</t>
+          <t>Prof L, Prof V</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -2403,21 +2401,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXT, XXBH</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Smt. W. R. Helen</t>
+          <t>Prof AO, Prof T, Prof P</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -2428,23 +2426,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXT</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Smt. W. R. Helen,Dr. M. Ifjaz Ahmed,Dr. V. Anand</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AJ, Prof AF</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -2453,23 +2451,23 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXR, XXN</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai,Dr. R. Ezhilarasie,Dr. P. Immaculate Rexi Jenifer,Dr. V. Nirmala</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AM, Prof AF, Prof K</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2478,17 +2476,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXT</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai,Dr. R. Ezhilarasie,Dr. P. Immaculate Rexi Jenifer,Smt. L. Gowri</t>
+          <t>Prof AE, Prof X, Prof AA, Prof B</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2503,25 +2501,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6_CSE_A,6_CSE_B,6_CSE_C,6_CSE_D,6_CSE_E</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CSE405R02,INT309,INT302R01</t>
+          <t>XXV</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa,Dr. P. Shanthi,Dr. M. Sumathi,Dr. H. Anilaglory,Dr. R. S. Raghav,Dr. C. Thaventhiran,Dr. B. Thamotharan</t>
+          <t>Prof C, Prof AB, Prof AH, Prof R</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -2530,25 +2526,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6_CSE_A,6_CSE_B,6_CSE_C,6_CSE_D,6_CSE_E</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CSE405R02,INT309,INT302R01</t>
+          <t>XXD</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa,Dr. P. Shanthi,Dr. M. Sumathi,Dr. H. Anilaglory,Dr. R. S. Raghav,Dr. C. Thaventhiran,Dr. B. Thamotharan</t>
+          <t>Prof AN, Prof AG, Prof AJ, Prof O</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -2557,21 +2551,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSE313 </t>
+          <t>XXAL, XXT</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Dr. N. Sasikala Devi</t>
+          <t>Prof AE, Prof E, Prof R</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -2582,21 +2576,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani</t>
+          <t>Prof J</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -2607,21 +2601,21 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXO, XXAY</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. N. Senthil Selvan </t>
+          <t>Prof AM</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -2632,17 +2626,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXS, XXA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Dr. S. Markkandeyan</t>
+          <t>Prof AO, Prof AG, Prof R, Prof AH</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2657,23 +2651,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXAH, XXAT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani,Dr. A. Sivapathi,Dr. N. Senthil Selvan,Dr. R. Devika</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof L, Prof AP</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -2682,17 +2676,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXAF, XXBC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani,Dr. A. Sivapathi,Dr. N. Senthil Selvan,Dr. M.Sumathi</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2707,23 +2701,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXY</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AM, Prof M, Prof T, Prof C</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -2732,23 +2726,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSE313 </t>
+          <t>XXY</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dr. V. S. Shankar Sriram</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>4</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>Prof AC, Prof AL</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
       <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -2757,17 +2751,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXBB, XXT</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. A. Joy Christy </t>
+          <t>Prof V, Prof S</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2782,17 +2776,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXBN, XXAP</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari</t>
+          <t>Prof A</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2807,23 +2801,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Dr. T. Suriya Praba</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>4</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>Prof AP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
       <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -2832,23 +2826,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXBE</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari,Ms. M. Vijaya Sakthi,Dr. A. Joy Christy,Dr. Ramya</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof T, Prof D, Prof F, Prof N</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -2857,23 +2851,23 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXV, XXBM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari,Ms. M. Vijaya Sakthi,Dr. A. Joy Christy,Dr. J. Premaladha</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof T, Prof AG</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -2882,23 +2876,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAP</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ms. V. Karthika</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof O</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -2907,17 +2901,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSE313 </t>
+          <t>XXB, XXV</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. Dindayal Mahto </t>
+          <t>Prof Z</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2932,21 +2926,21 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXN</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. A. Umamakeswari </t>
+          <t>Prof D, Prof B</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
@@ -2957,21 +2951,21 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Shri S. Ananthakrishnan</t>
+          <t>Prof AK, Prof AF, Prof L, Prof E</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
@@ -2982,21 +2976,21 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXAL, XXAR</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. P. L. K. Priyadarsini </t>
+          <t>Prof AO, Prof AM</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -3007,23 +3001,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXN, XXBE</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy,Dr. G. Pradeep,Shri S. Ananthakrishnan,Dr. P. Padmakumari</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AP, Prof L, Prof H, Prof AI</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -3032,23 +3026,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXK, XXP</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy,Dr. A. L. Sriram,Shri S. Ananthakrishnan,Dr. P. Shanthi</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AG, Prof AK, Prof AJ, Prof U</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3057,23 +3051,23 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXBH</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Shri K. Arunkumar</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof O, Prof AC, Prof C, Prof N</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3082,21 +3076,21 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSE313 </t>
+          <t>XXAP, XXAS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Dr. M. Jayasheela Rakkini</t>
+          <t>Prof AI</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -3107,21 +3101,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXBJ, XXAE</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Dr. B. Lakshmi</t>
+          <t>Prof AO, Prof S</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -3132,17 +3126,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXBF, XXO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Dr. M. Sumathi</t>
+          <t>Prof W, Prof AM, Prof V</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3157,21 +3151,21 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXAM, XXAI</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Smt. A. Srilakshmi</t>
+          <t>Prof B, Prof AO, Prof AM, Prof T</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
@@ -3182,23 +3176,23 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Dr. M. Sumathi,Dr. P. Shanthi,Dr. B. Lakshmi,Dr. J. Premaladha</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Y, Prof P, Prof O</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -3207,23 +3201,23 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXAQ, XXP</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Dr. M. Sumathi,Dr. P. Shanthi,Dr. B. Lakshmi,Dr. R. Manikandan</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof C, Prof AM</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -3232,17 +3226,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXBJ, XXV</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>Prof J</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -3257,21 +3251,21 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSE313 </t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai</t>
+          <t>Prof AF, Prof AG, Prof R, Prof AH</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -3282,17 +3276,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXBN</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Dr. G. Pradeep</t>
+          <t>Prof A, Prof G, Prof AH, Prof Y</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3307,21 +3301,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXAL</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Shri S. Ananthakrishnan</t>
+          <t>Prof H, Prof AP, Prof T, Prof P</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -3332,17 +3326,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXAF</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Dr. N. Moratanch</t>
+          <t>Prof N, Prof J, Prof V, Prof AB</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3357,23 +3351,23 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXT</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Dr. Ramya,Dr. V. Nirmala,Shri S. Ananthakrishnan,Dr. N. Senthil Selvan</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Q, Prof AD, Prof K</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -3382,23 +3376,23 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CSE315R02,CSE403</t>
+          <t>XXAW</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Dr. Ramya,Dr. V. Nirmala,Shri S. Ananthakrishnan,Dr. R. Devika</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AB, Prof K, Prof AL, Prof S</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -3407,23 +3401,23 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXBG, XXR</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Shri K. M. Murugappan</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof K, Prof AO, Prof AG</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -3432,21 +3426,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4_CSE_A,4_CSE_B,4_CSE_C,4_CSE_D,4_CSE_E</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAT304R01,CSE202,CSE307 </t>
+          <t>XXA, XXI</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Dr. T. Kannan,Dr. V. Venktraman,Dr. Devulapalli R V S R K Sastry,Dr. B. Karthikeyan,Dr. L. Prabaharan,Dr. R. Devika</t>
+          <t>Prof B, Prof A, Prof M</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -3457,21 +3451,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Dr. Y. B. Venkatakrishnan</t>
+          <t>Prof AN</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -3482,17 +3476,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXBK, XXV</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Dr. V. Meena</t>
+          <t>Prof P</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3507,17 +3501,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXK</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Dr. G. Manikandan</t>
+          <t>Prof Q, Prof AG, Prof T, Prof G</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3532,17 +3526,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXAM</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Dr. K. S. Suresh</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3557,23 +3551,23 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Dr. K. S. Suresh,Dr. M. V. Rajilal,Dr. V. Meena,Dr. V. Nirmala</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Y, Prof C, Prof H, Prof AL</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>3</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -3582,23 +3576,23 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXBN</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Dr. K. S. Suresh,Dr. V. Venkatesh,Dr. V. Meena,Dr. M. Devisri Nandhini</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof O</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>3</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -3607,17 +3601,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAY</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Dr. S. Balaji</t>
+          <t>Prof AF</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3632,17 +3626,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXAT, XXAV</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Dr. T. Suriya Praba</t>
+          <t>Prof P, Prof V, Prof A</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3657,21 +3651,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Dr. S. Markkandeyan</t>
+          <t>Prof F, Prof Y</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -3682,21 +3676,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXM, XXBJ</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Dr. R. Ezhilarasie</t>
+          <t>Prof P, Prof V, Prof I, Prof O</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -3707,23 +3701,23 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXBH, XXAI</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Dr. R. Ezhilarasie,Dr. T. Pasupathi,Dr. T. Suriya Praba,Dr. B. Karthikeyan</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof H, Prof AD, Prof AL</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -3732,23 +3726,23 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXAR, XXO</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Dr. R. Ezhilarasie,Dr. T. Pasupathi,Dr. T. Suriya Praba,Dr. S. Priya</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Z, Prof Y, Prof W, Prof V</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>3</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -3757,17 +3751,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAE, XXT</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Dr. S. Balachandran</t>
+          <t>Prof M, Prof E, Prof AM, Prof J</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3782,17 +3776,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXX, XXAC</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Dr. D. Umamaheswari</t>
+          <t>Prof Q, Prof N, Prof U</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3807,21 +3801,21 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXBB, XXBL</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Dr. V. Anand</t>
+          <t>Prof K, Prof AG, Prof AP</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
@@ -3832,17 +3826,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXAL</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Dr. K. Hariharan</t>
+          <t>Prof H</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3857,17 +3851,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXBG</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Dr. K. Hariharan,Dr. K. Joseph Abraham Sundar,Dr. D. Umamaheswari,Dr. R. Anushiadevi</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -3882,23 +3876,23 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Dr. K. Hariharan,Dr. K. Joseph Abraham Sundar,Dr. D. Umamaheswari,Dr. R. Anushiadevi</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof C</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -3907,17 +3901,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAM, XXAN</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Dr. P. Naveen</t>
+          <t>Prof V, Prof I, Prof H, Prof AO</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3932,17 +3926,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXBG</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Dr. P. Anu</t>
+          <t>Prof AD</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3957,21 +3951,21 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXAC, XXX</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan</t>
+          <t>Prof B, Prof F, Prof I</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -3982,24 +3976,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec H, Sec K, Sec M, Sec F, Sec R, Sec E, Sec L, Sec N, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Dr. M. Meenalochani</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>4</v>
-      </c>
+          <t>BLOCKED_141</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>(1, 8), (2, 7), (4, 7), (4, 8)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4007,24 +3999,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec O, Sec E, Sec N, Sec P, Sec M, Sec K, Sec R, Sec G, Sec H, Sec D</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Dr. M. Meenalochani,Dr. R. Ananth Hari,Dr. P. Anu,Dr. S. Jayasankari</t>
-        </is>
-      </c>
+          <t>BLOCKED_142</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="n">
-        <v>2</v>
-      </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>(2, 1), (3, 2), (3, 7), (3, 8)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4032,24 +4022,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec R, Sec C, Sec K, Sec M, Sec N, Sec T, Sec O, Sec P, Sec A, Sec Q</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Dr. M. Meenalochani,Dr. R. Ananth Hari,Dr. P. Anu,Dr. V. Nirmala</t>
-        </is>
-      </c>
+          <t>BLOCKED_143</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="n">
-        <v>2</v>
-      </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>(1, 2), (4, 2), (5, 2), (5, 8)</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4057,24 +4045,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec A, Sec C, Sec D, Sec E, Sec F, Sec H, Sec I, Sec K, Sec L, Sec O</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Dr. G. Jegadeesan</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>4</v>
-      </c>
+          <t>LUNCH_DAY_1_HOUR_4</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>(1,4)</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4082,24 +4068,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec B, Sec G, Sec J, Sec M, Sec N, Sec P, Sec Q, Sec R, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Dr. S. Jayasankari</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>4</v>
-      </c>
+          <t>LUNCH_DAY_1_HOUR_5</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>(1,5)</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4107,24 +4091,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec A, Sec B, Sec D, Sec E, Sec F, Sec H, Sec K, Sec L, Sec N, Sec T</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Dr. V. Nirmala</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>3</v>
-      </c>
+          <t>LUNCH_DAY_2_HOUR_4</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>(2,4)</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4132,24 +4114,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec C, Sec G, Sec I, Sec J, Sec M, Sec O, Sec P, Sec Q, Sec R, Sec S</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Dr. D. Muralidharan</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>4</v>
-      </c>
+          <t>LUNCH_DAY_2_HOUR_5</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>(2,5)</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4157,24 +4137,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec B, Sec C, Sec F, Sec G, Sec H, Sec K, Sec M, Sec N, Sec O, Sec R</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Dr. D. Muralidharan,Dr. R. Ananth Hari,Dr. S. Jayasankari,Dr. T. Suriya Praba</t>
-        </is>
-      </c>
+          <t>LUNCH_DAY_3_HOUR_4</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="n">
-        <v>2</v>
-      </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>(3,4)</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4182,24 +4160,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec A, Sec D, Sec E, Sec I, Sec J, Sec L, Sec P, Sec Q, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CSE206R02,CSE306R01</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Dr. D. Muralidharan,Dr. R. Ananth Hari,Dr. S. Jayasankari,Dr. P. Anu</t>
-        </is>
-      </c>
+          <t>LUNCH_DAY_3_HOUR_5</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="n">
-        <v>2</v>
-      </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>(3,5)</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4207,24 +4183,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec B, Sec C, Sec D, Sec J, Sec L, Sec P, Sec Q, Sec R, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>INT420</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Dr. H. Anilaglory</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>4</v>
-      </c>
+          <t>LUNCH_DAY_4_HOUR_4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>(4,4)</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4232,24 +4206,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec A, Sec E, Sec F, Sec G, Sec H, Sec I, Sec K, Sec M, Sec N, Sec O</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>INT320</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Dr. Sujeet S Jagtap</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>4</v>
-      </c>
+          <t>LUNCH_DAY_4_HOUR_5</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>(4,5)</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4257,24 +4229,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec A, Sec G, Sec I, Sec J, Sec M, Sec N, Sec P, Sec Q, Sec R, Sec S</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>INT322</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Dr. Kannan Balasubramanian</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>3</v>
-      </c>
+          <t>LUNCH_DAY_5_HOUR_4</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>(5,4)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4282,1869 +4252,18 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec B, Sec C, Sec D, Sec E, Sec F, Sec H, Sec K, Sec L, Sec O, Sec T</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>INT323</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Dr. R. Manikandan</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>4</v>
-      </c>
+          <t>LUNCH_DAY_5_HOUR_5</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>INT309</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Dr. P. Shanthi</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>3</v>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>INT309</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Dr. P. Shanthi,Dr. R. S. Raghav,Dr. R. Manikandan</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="n">
-        <v>2</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>INT427</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Dr. H. Anilaglory,Smt. I. Epistle,Dr. Sujeet S Jagtap,Dr. Dindayal Mahto</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="n">
-        <v>2</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>INT321</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Dr. H. Anilaglory,Smt. I. Epistle,Dr. Sujeet S Jagtap,Dr. Dindayal Mahto</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="n">
-        <v>2</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>TNP102R01</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Shri M. B. Sundhararaj</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="n">
-        <v>2</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Shri B. Senthilkumar</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>4</v>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Dr. S. Kamakshi</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>4</v>
-      </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Shri P. Rajendran</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>3</v>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Dr. M. V. Rajilal</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>4</v>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>MAT304R01</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Dr. R. Srikanth</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>4</v>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>CSE206R02,CSE306R01</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Dr. M. V. Rajilal,Dr. M. Meenalochani,Dr. S. Kamakshi,Dr. P. Immaculate Rexi Jenifer</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="n">
-        <v>2</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>CSE206R02,CSE306R01</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Dr. M. V. Rajilal,Dr. R. Ananth Hari,Dr. S. Kamakshi,Dr. D. Umamaheswari</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="n">
-        <v>2</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Dr. S. Ramya</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>4</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>INT405R02</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Dr. K. Kannan</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>4</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>ECE312</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Dr. R. Muthaiah</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>4</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>INT303R01</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Dr. G. Manikandan</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>4</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>INT407,ECE313</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Dr. S. Vidivelli,Dr. R. Nithya,Shri R. Vijay Sai,Dr. R. Saravanan</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>2</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>INT407,ECE314</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Dr. S. Vidivelli,Dr. H. Anilaglory,Shri R. Vijay Sai,Dr. R. Saravanan</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F172" t="n">
-        <v>2</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>TNP102R01</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Shri S. Nesakumaran</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>2</v>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>MAT310</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Shri S. Dickson</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>4</v>
-      </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Dr. S. Palanivel</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>3</v>
-      </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>175</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>CSE308</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Dr. B. Karthikeyan</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>3</v>
-      </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>176</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>CSE207R01</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Dr. K. Joseph Abraham Sundar</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>4</v>
-      </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>CSE309R01,INT103R01</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Dr. B. Karthikeyan,Shri P. Rajendran,Dr. S. Palanivel,Dr. R. Venkatesan</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="n">
-        <v>2</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>CSE309R01,INT103R01</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Dr. B. Karthikeyan,Shri P. Rajendran,Dr. S. Palanivel,Dr. R. Venkatesan</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="n">
-        <v>2</v>
-      </c>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>CSE322</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. A. Dennis Ananth </t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>3</v>
-      </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>INT313</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Dr. Kannan Balasubramanian</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>4</v>
-      </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>INT314</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Dr. G. R. Brindha</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>3</v>
-      </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>COM117</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Ms. R. Nalini</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>4</v>
-      </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>ENG316</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. V. Vidya </t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>1</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>ENG316</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. V. Vidya </t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>MGT222</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. R. Gayathri </t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>4</v>
-      </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>CSE323R01</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Shri V. P. Akniraj,Dr. K. Rajkumar,Dr. G. R. Brindha,Dr. S. Vishnika Veni</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="n">
-        <v>2</v>
-      </c>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>INT315</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Shri V. P. Akniraj,Dr. K. Rajkumar,Dr. G. R. Brindha,Dr. S. Vishnika Veni</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="n">
-        <v>2</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>CSE308</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. S. Rajarajan </t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>3</v>
-      </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>CSE215</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Dr. G. Pradeep</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>4</v>
-      </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>CSE318</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Dr. B. Srinivasan</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>3</v>
-      </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>MGT207</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Dr. N. Shobhana</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>3</v>
-      </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>ENG212</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Shri G. Ramakrishnan</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>ENG212</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Shri G. Ramakrishnan</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2</v>
-      </c>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>MAT330R01</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Dr. V. Swaminathan</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>3</v>
-      </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>CSE319,MAT331</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Ms. S. Sowndarya,Dr. B. Srinivasan,Dr. S. Raj Anand</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="n">
-        <v>2</v>
-      </c>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>CSE319,MAT332</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Ms. S. Sowndarya,Dr. B. Srinivasan,Dr. S. Raj Anand</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="n">
-        <v>2</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>CSE309R01,CSE218</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Dr. S. Rajarajan,Dr. N. Sasikala Devi,Dr. G. Pradeep,Smt. P. Silambarasi</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="n">
-        <v>2</v>
-      </c>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>CSE309R01,CSE218</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Dr. S. Rajarajan,Dr. N. Sasikala Devi,Dr. G. Pradeep,Smt. P. Silambarasi</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="n">
-        <v>2</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>INT405R02</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Dr. A. Dennis Ananth</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>4</v>
-      </c>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>CSE415R02</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Dr. A. Umamakeswari</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>4</v>
-      </c>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>201</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>CSE335</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Dr. R. Ezhilarasie</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>3</v>
-      </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>202</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>INT307R01</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Dr. S. Raj Anand</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>3</v>
-      </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>203</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>INT307R01</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Dr. S. Raj Anand,Dr. N. Venkatasubramanian,Shri N. Senthil Anand</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="n">
-        <v>2</v>
-      </c>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>204</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. M. Lavanya </t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>4</v>
-      </c>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>205</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>INT407</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Dr. M. V. Rajilal,Shri N. Senthil Anand,Dr. A. Dennis Ananth,Smt. M. Indhumathi</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="n">
-        <v>2</v>
-      </c>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>206</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>CSE434</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Dr. M. V. Rajilal,Shri N. Senthil Anand,Dr. A. Dennis Ananth,Shri. M. Balamurali</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="n">
-        <v>2</v>
-      </c>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>TNP102R01</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Ms. V. Karthika</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="n">
-        <v>2</v>
-      </c>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>208</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Shri R. Sreedharan</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>4</v>
-      </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Dr. M. P. Karthikeyan</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>4</v>
-      </c>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>210</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. P. Nalayini </t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>3</v>
-      </c>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. R. Ananth Hari </t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>4</v>
-      </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>CSE219R01</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Dr. R. Manikandan</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>4</v>
-      </c>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>213</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>CSE206R02</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Dr. K. Joseph Abraham Sundar,Dr. D. Muralidharan,Dr. M. V. Rajilal</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="n">
-        <v>2</v>
-      </c>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>214</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>CSE306R01</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Dr. M. P. Karthikeyan,Dr. S. Ramakrishnan,Dr. V. Nirmala</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="n">
-        <v>2</v>
-      </c>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>215</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M,  6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>MINOR_6</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>(1, 7), (1, 8), (4, 1), (4, 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>216</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>MINOR_4</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>(2, 7), (2, 8), (5, 1), (5, 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>217</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_1_HOUR_4</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>(1,4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>218</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_1_HOUR_5</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>(1,5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>219</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_2_HOUR_4</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>(2,4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>220</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_IoTA_J, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_2_HOUR_5</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>(2,5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>221</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_AIDS_F, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_3_HOUR_4</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>(3,4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>222</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_3_HOUR_5</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>(3,5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>223</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_G, 4_IoTA_J, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_4_HOUR_4</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>(4,4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>224</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_4_HOUR_5</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>(4,5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>225</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_5_HOUR_4</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>(5,4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>226</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>LUNCH_DAY_5_HOUR_5</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>(5,5)</t>
         </is>
